--- a/CH402/spreadsheets/Agitator_Design_Tool.xlsx
+++ b/CH402/spreadsheets/Agitator_Design_Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usarmywestpoint.sharepoint.com/sites/cls.ch402/Main Page/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usarmywestpoint-my.sharepoint.com/personal/andrew_biaglow_westpoint_edu/Documents/Documents/GitHub/abiaglow.github.io/CH402/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="10_ncr:100000_{2C241279-80B3-4998-9EDD-1A3541ED4F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B81BB5C-61B4-47E2-9D90-E7DCCBA7C391}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="10_ncr:100000_{2C241279-80B3-4998-9EDD-1A3541ED4F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE53170-4974-4F43-AAAA-293EE3AF4CC1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="design" sheetId="1" r:id="rId1"/>
@@ -663,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -697,7 +697,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -709,9 +708,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -732,7 +728,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4460,9 +4455,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4500,9 +4495,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4535,26 +4530,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4587,26 +4565,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4784,7 +4745,7 @@
   <dimension ref="B1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4815,15 +4776,15 @@
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="H3" s="34" t="s">
+      <c r="E3" s="25"/>
+      <c r="H3" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="M3" s="26" t="s">
+      <c r="I3" s="31"/>
+      <c r="M3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4840,15 +4801,15 @@
       <c r="E4" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="34" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="K4" s="25" t="s">
+      <c r="I4" s="31"/>
+      <c r="K4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="M4" s="8">
@@ -4871,10 +4832,10 @@
       <c r="E5" s="12">
         <v>1498</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="23" t="s">
         <v>53</v>
       </c>
       <c r="M5" s="8">
@@ -4897,10 +4858,10 @@
       <c r="E6" s="12">
         <v>90</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="23" t="s">
         <v>57</v>
       </c>
       <c r="M6">
@@ -4920,16 +4881,16 @@
       <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <v>0.6</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="23" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <v>0.2</v>
       </c>
       <c r="N7" s="8">
@@ -4949,13 +4910,13 @@
       <c r="E8" s="12">
         <v>1.8</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="20" t="s">
         <v>66</v>
       </c>
       <c r="N8" s="8">
@@ -4975,10 +4936,10 @@
       <c r="E9" s="12">
         <v>1.8</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="23" t="s">
         <v>54</v>
       </c>
       <c r="M9" s="8">
@@ -5048,13 +5009,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <v>4</v>
       </c>
       <c r="H14" s="16" t="s">
@@ -5071,7 +5032,7 @@
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="13">
         <f>IF(E14=0,powerfunc!M4,powerfunc!M8)</f>
         <v>6</v>
       </c>
@@ -5089,11 +5050,11 @@
       <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="7">
         <f>phi*(Fr^m)*((Nr/60)^3)*(Da^5)*rho</f>
         <v>2851.6490473945473</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="27" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5108,8 +5069,8 @@
         <v>41</v>
       </c>
       <c r="E17" s="15">
-        <f>PI()*Dt^2*Z</f>
-        <v>18.321768355735674</v>
+        <f>PI()*Dt^2*Z/4</f>
+        <v>4.5804420889339186</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.5" x14ac:dyDescent="0.4">
@@ -5124,7 +5085,7 @@
       </c>
       <c r="E18" s="8">
         <f>12000*((mu*V/P)^0.5)*V^0.2</f>
-        <v>188.49550699549312</v>
+        <v>71.426440666461389</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -5135,11 +5096,11 @@
       <c r="C19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="24">
-        <v>1</v>
+      <c r="E19" s="22">
+        <v>8.7500000000000008E-3</v>
       </c>
       <c r="H19" s="14"/>
     </row>
@@ -5150,12 +5111,12 @@
       <c r="C20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="8">
         <f>V/mv</f>
-        <v>18.321768355735674</v>
+        <v>523.47909587816207</v>
       </c>
       <c r="G20" s="14"/>
     </row>
@@ -5259,17 +5220,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="M1" s="33" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="M1" s="30" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5278,30 +5239,30 @@
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="7">
@@ -5311,7 +5272,7 @@
       <c r="N3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5343,7 +5304,7 @@
       <c r="N4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="19" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5368,7 +5329,7 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="O5" s="20"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D6">
@@ -5391,7 +5352,7 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="M6" s="30" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5423,7 +5384,7 @@
       <c r="N7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5455,7 +5416,7 @@
       <c r="N8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="19" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6447,15 +6408,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DB0B119A744C394FBE30F98CDB95C25F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="988c1e0abf1736cd87b965bac56d4ff5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0aeaa5f-9902-4227-943a-d50ef2f24097" xmlns:ns3="f19ba8ee-fde7-4e05-a035-587ad3022cfe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c947f3dffba9f31b67f9a6d62fc2dbf" ns2:_="" ns3:_="">
     <xsd:import namespace="c0aeaa5f-9902-4227-943a-d50ef2f24097"/>
@@ -6672,6 +6624,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B5FD26A-C25C-41E7-98A2-1F0B91AC3428}">
   <ds:schemaRefs>
@@ -6690,13 +6651,28 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5AC9A2D-B7D3-4F01-9AEB-13A1403305EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c0aeaa5f-9902-4227-943a-d50ef2f24097"/>
+    <ds:schemaRef ds:uri="f19ba8ee-fde7-4e05-a035-587ad3022cfe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF256BA6-CA02-4304-837E-74C5162A546A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5AC9A2D-B7D3-4F01-9AEB-13A1403305EA}"/>
 </file>